--- a/SVP/src/test/resources/datadriven/saldosporproducto/saldosporproducto.xlsx
+++ b/SVP/src/test/resources/datadriven/saldosporproducto/saldosporproducto.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Todo1\Automatizacion\svp-rediseno-personas-web-tests-bdd-screenplay\SVP\src\test\resources\datadriven\inicio\saldosporproducto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Todo1\Automatizacion\svp-rediseno-personas-web-tests-bdd-screenplay\SVP\src\test\resources\datadriven\saldosporproducto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -347,7 +347,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="76">
   <si>
     <t>Orientacion</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>0935000000538, 0935000000832 , Falta CDT</t>
+  </si>
+  <si>
+    <t>usuariotodo1</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1053,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1210,7 +1213,9 @@
       <c r="D4" s="7"/>
       <c r="E4" s="9"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="H4" s="11">
         <v>1234</v>
       </c>
@@ -1634,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1823,8 +1828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2152,7 +2157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>

--- a/SVP/src/test/resources/datadriven/saldosporproducto/saldosporproducto.xlsx
+++ b/SVP/src/test/resources/datadriven/saldosporproducto/saldosporproducto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -562,19 +562,19 @@
     <t>406-725210-11, 406-725210-12, 406-725210-13, 406-725210-14, 406-725210-25, 406-725210-26, 406-725210-27, 406-725210-28, 406-125210-01, 406-125210-02, 406-125210-03, 406-125210-04</t>
   </si>
   <si>
-    <t>****7806, ****7767, ****4895, ****5950, ****6318, ****6682</t>
-  </si>
-  <si>
     <t>Crediágil</t>
   </si>
   <si>
     <t>invictus10</t>
   </si>
   <si>
-    <t>0935000000538, 0935000000832 , Falta CDT</t>
-  </si>
-  <si>
     <t>usuariotodo1</t>
+  </si>
+  <si>
+    <t>****7806, ****7767, ****4895, ****5950, ****6318</t>
+  </si>
+  <si>
+    <t>0935000000538, 0935000000832</t>
   </si>
 </sst>
 </file>
@@ -1052,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1138,7 +1138,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="21"/>
       <c r="G2" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2" s="23">
         <v>1234</v>
@@ -1151,16 +1151,16 @@
         <v>70</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M2" s="15">
         <v>29281023956</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="9" t="s">
@@ -1214,7 +1214,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="12"/>
       <c r="G4" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H4" s="11">
         <v>1234</v>
@@ -2157,7 +2157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>

--- a/SVP/src/test/resources/datadriven/saldosporproducto/saldosporproducto.xlsx
+++ b/SVP/src/test/resources/datadriven/saldosporproducto/saldosporproducto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -1052,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1640,7 +1640,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1828,8 +1828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2071,7 +2071,7 @@
         <v>61</v>
       </c>
       <c r="H7" s="19">
-        <v>5555</v>
+        <v>1234</v>
       </c>
       <c r="I7" s="19">
         <v>1234</v>
